--- a/data/trans_dic/P19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,28; 2,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,5; 2,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,25; 2,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,47; 2,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,28; 2,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,44; 1,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,49; 1,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,41; 1,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,22; 2,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,19; 1,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,31; 2,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,4; 2,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,18; 1,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,21; 2,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,58; 2,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,38; 2,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,34; 1,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,41; 1,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,65; 2,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,37; 1,84</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,2; 1,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,5; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,18; 1,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,65; 2,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,47; 4,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,33; 2,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,28; 1,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,62; 2,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,19; 2,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,39; 1,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,22; 1,07</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,0; 1,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,41; 2,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,41; 3,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,44; 2,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,09; 3,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,97; 3,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,39; 2,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,03; 2,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,75; 2,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,83; 2,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,6; 2,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,87; 2,21</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,02; 4,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,27; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,56; 4,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,47; 2,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,52; 2,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>1,13; 4,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,79; 2,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,79; 2,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,54; 2,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,12; 3,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,8; 1,86</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,8; 3,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,72; 3,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,32; 1,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,19; 1,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,36; 2,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,68; 3,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,42; 1,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,65; 2,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,38; 1,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,83; 2,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,48; 1,28</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,73; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,66; 1,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,78; 1,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,54; 1,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,03; 1,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,95; 1,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,85; 1,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,86; 1,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>0,95; 1,51</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>1,0; 1,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>0,77; 1,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 6,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,75</t>
+          <t>0,22; 3,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,38</t>
+          <t>0,31; 2,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,84</t>
+          <t>0,36; 1,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,65</t>
+          <t>0,29; 1,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,07</t>
+          <t>0,21; 1,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,37</t>
+          <t>0,21; 1,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,83</t>
+          <t>0,98; 2,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,21</t>
+          <t>0,58; 1,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,18</t>
+          <t>0,48; 2,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,3</t>
+          <t>0,81; 2,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,86</t>
+          <t>0,82; 1,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>0,72%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>0,81%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,24%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,95</t>
+          <t>0,43; 4,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,16</t>
+          <t>0,44; 4,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,54</t>
+          <t>0,36; 2,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,77</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,1</t>
+          <t>0,29; 2,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,2</t>
+          <t>0,37; 3,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,3</t>
+          <t>0,16; 1,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,29</t>
+          <t>0,38; 2,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,53</t>
+          <t>0,33; 1,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,64</t>
+          <t>0,61; 2,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,28</t>
+          <t>0,32; 1,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,63%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,75; 7,94</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,16</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,19</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,69</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 3,12</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 5,31</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 1,45</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,27</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,04</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 3,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 1,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,73; 1,61</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,66; 1,46</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,78; 1,73</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 1,24</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 1,36</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,79; 1,57</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,03; 1,92</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,95; 1,78</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 1,47</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 1,41</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0,86; 1,46</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0,95; 1,51</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>1,0; 1,63</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 1,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 1,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,71</t>
+          <t>0,28; 2,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,8</t>
+          <t>0,51; 3,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,43</t>
+          <t>0,24; 2,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0,24; 2,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,76</t>
+          <t>0,28; 2,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,98</t>
+          <t>0,4; 1,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,93</t>
+          <t>0,41; 1,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,98</t>
+          <t>0,42; 1,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,59</t>
+          <t>0,23; 3,52</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,75</t>
+          <t>0,19; 1,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,0</t>
+          <t>0,3; 2,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,57</t>
+          <t>0,4; 2,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,8</t>
+          <t>0,18; 2,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,21</t>
+          <t>0,19; 2,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,7</t>
+          <t>0,57; 2,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,16</t>
+          <t>0,32; 2,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,27</t>
+          <t>0,34; 1,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,65</t>
+          <t>0,4; 1,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,18</t>
+          <t>0,66; 2,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,83</t>
+          <t>0,36; 1,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,83</t>
+          <t>0,2; 1,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,46</t>
+          <t>0,51; 2,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,89</t>
+          <t>0,18; 1,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,77</t>
+          <t>0,67; 2,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,12</t>
+          <t>1,46; 3,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,43</t>
+          <t>0,34; 2,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,64</t>
+          <t>0,28; 1,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,04</t>
+          <t>0,63; 1,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,71</t>
+          <t>1,18; 2,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,57</t>
+          <t>0,41; 1,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,01</t>
+          <t>0,18; 0,93</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,53</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,93</t>
+          <t>0,39; 3,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,06</t>
+          <t>0,43; 3,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,79</t>
+          <t>0,26; 1,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,88</t>
+          <t>1,1; 3,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,45</t>
+          <t>0,84; 3,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,2</t>
+          <t>0,38; 2,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,79</t>
+          <t>0,96; 2,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,31</t>
+          <t>0,68; 2,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,52</t>
+          <t>0,84; 2,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,07</t>
+          <t>0,59; 2,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,87</t>
+          <t>0,69; 1,91</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,85</t>
+          <t>1,05; 4,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,57</t>
+          <t>0,27; 2,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,11</t>
+          <t>0,56; 4,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,23</t>
+          <t>0,45; 2,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,96</t>
+          <t>0,54; 3,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,52</t>
+          <t>1,12; 4,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,34</t>
+          <t>0,87; 2,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,96</t>
+          <t>0,77; 2,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,25</t>
+          <t>0,54; 2,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,39</t>
+          <t>1,13; 3,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,9</t>
+          <t>0,81; 1,97</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,15</t>
+          <t>0,43; 4,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,03</t>
+          <t>0,45; 4,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,1</t>
+          <t>0,31; 2,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,53</t>
+          <t>0,3; 2,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,43</t>
+          <t>0,36; 3,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,55</t>
+          <t>0,15; 1,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,25</t>
+          <t>0,38; 2,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,89</t>
+          <t>0,33; 1,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,82</t>
+          <t>0,59; 2,65</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,44</t>
+          <t>0,32; 1,43</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1565,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,94</t>
+          <t>0,75; 7,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1575,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,12</t>
+          <t>0,36; 3,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,31</t>
+          <t>0,54; 4,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,45</t>
+          <t>0,34; 1,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,27</t>
+          <t>0,34; 3,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,04</t>
+          <t>0,22; 1,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,84</t>
+          <t>0,63; 3,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,11</t>
+          <t>0,29; 1,2</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,61</t>
+          <t>0,74; 1,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,46</t>
+          <t>0,69; 1,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,73</t>
+          <t>0,82; 1,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,36</t>
+          <t>0,5; 1,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,57</t>
+          <t>0,8; 1,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,92</t>
+          <t>1,06; 1,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,78</t>
+          <t>0,9; 1,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,41</t>
+          <t>0,76; 1,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,46</t>
+          <t>0,86; 1,45</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,51</t>
+          <t>0,95; 1,52</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,63</t>
+          <t>0,97; 1,59</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,26</t>
+          <t>0,72; 1,27</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4957</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6038</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3604</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7125</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7804</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6920</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7669</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1000; 10171</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1920; 12183</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>892; 8169</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24661</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>902; 8183</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>881; 8622</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>972; 8857</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8102</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2908; 14368</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3054; 14534</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2956; 13767</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1576; 24186</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5369</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5695</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4962</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6653</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4932</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7980</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10331</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12348</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7882</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1084; 9778</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1784; 12495</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1975; 13624</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10922</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1011; 10931</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1044; 11991</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2834; 13110</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1574; 12486</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3814; 15181</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4590; 19305</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6574; 21410</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3209; 16154</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8319</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15763</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12243</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22749</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9586</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4827</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1011; 9819</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2995; 13758</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1030; 10617</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4931</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4022; 15668</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9643; 26173</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1950; 12770</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1490; 8581</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6986; 21285</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14718; 33751</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4634; 19142</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1904; 9827</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6549</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7127</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9532</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10105</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5411</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12075</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11442</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16705</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11959</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19202</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5906</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2134; 17612</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2188; 16374</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2222; 15237</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4814; 17375</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4759; 18674</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2094; 11468</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6720; 19104</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5777; 18717</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9240; 28893</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6245; 22129</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10796; 29898</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6602</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3104</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6220</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6025</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9049</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7876</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9273</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8373</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15269</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13901</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2848; 12825</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>974; 8503</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2073; 16490</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2466; 11816</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9059</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2108; 12653</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4445; 16047</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4652; 13287</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4537; 16889</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4086; 16629</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8667; 26644</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8716; 21261</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3536</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3485</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2826</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5290</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7784</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>911; 8842</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6159</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1026; 10150</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1122; 8056</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6001</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>893; 7413</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1006; 8464</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>904; 8841</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1760; 10656</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1878; 11122</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3006; 13440</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3068; 13714</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3394</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4821</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4571</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3394</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>952; 9585</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2137</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7981</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4241</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5335</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1095; 9135</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1231; 11375</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1377; 6648</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1127; 12316</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1095; 8994</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2361; 14039</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1956; 8185</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>26937</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>29005</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>31603</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>27826</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>30986</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>45167</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>38279</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>37773</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>57923</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>74172</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>69882</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>65599</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>18164; 38256</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>20054; 43082</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>21809; 46014</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>16831; 44629</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>21919; 43006</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>33303; 61523</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>25919; 52492</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>27131; 50506</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>44581; 75159</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>57445; 91903</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>53556; 87748</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>49680; 87707</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>